--- a/biology/Botanique/Arenga_engleri/Arenga_engleri.xlsx
+++ b/biology/Botanique/Arenga_engleri/Arenga_engleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Arenga engleri, ou le palmier Formose, le palmier à sucre de Taiwan, le palmier à sucre nain ou le palmier Arenga de Taiwan, est une espèce de plante à fleurs de la famille des Arecaceae . Ce palmier dépasse rarement les 3 mètres de haut, avec un diamètre de stipe de 15 cm, et une envergure de 4 à 5 mètres tout au plus. Le palmier est originaire de Taïwan ainsi que des îles Ryukyu au Japon[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Arenga engleri, ou le palmier Formose, le palmier à sucre de Taiwan, le palmier à sucre nain ou le palmier Arenga de Taiwan, est une espèce de plante à fleurs de la famille des Arecaceae . Ce palmier dépasse rarement les 3 mètres de haut, avec un diamètre de stipe de 15 cm, et une envergure de 4 à 5 mètres tout au plus. Le palmier est originaire de Taïwan ainsi que des îles Ryukyu au Japon.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec des tiges groupées, par de nombreux rejets, il mesure de 2 à 5 m de hauteur, avec  10 à 15 cm de diamètre de stipe. De longues feuilles pennées avec des pétioles  de 1,5 m; et  3 m de rachis;avec de 38 à 41 folioles indupliquées de part et d’autre, linéaires, très brièvement lobés le long des marges, régulièrement disposés et s'étendant dans le même plan à l'exception de quelques pinnules basales; les pennes du milieu de 43 à 49 cm de long et de 2 cm de largeur au centre, vert foncé sur le dessus, gris-argenté  au-dessous et déchiquetées à l’extrémité (un peu à la manière des Caryotas auxquels les Arenga sont liés)[2].
-C’est un palmier monoïque et hapaxantique les inflorescences, qui apparaissent de l’extrémité du stipe successivement jusqu’à sa base, sont assez courtes (60 cm) et portent des fruits jaune-orangé ou rouges, globuleux, 1,5 cm de diamètre. La floraison signe la mort du stipe qui la porte[3]. Les fruits sont noirs à maturité, ils contiennent des cristaux d’oxalate, qui peuvent être assez irritants…… à manipuler avec précaution. Les graines sont petites, de couleur noire, pointues d’un côté et arrondies de l’autre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec des tiges groupées, par de nombreux rejets, il mesure de 2 à 5 m de hauteur, avec  10 à 15 cm de diamètre de stipe. De longues feuilles pennées avec des pétioles  de 1,5 m; et  3 m de rachis;avec de 38 à 41 folioles indupliquées de part et d’autre, linéaires, très brièvement lobés le long des marges, régulièrement disposés et s'étendant dans le même plan à l'exception de quelques pinnules basales; les pennes du milieu de 43 à 49 cm de long et de 2 cm de largeur au centre, vert foncé sur le dessus, gris-argenté  au-dessous et déchiquetées à l’extrémité (un peu à la manière des Caryotas auxquels les Arenga sont liés).
+C’est un palmier monoïque et hapaxantique les inflorescences, qui apparaissent de l’extrémité du stipe successivement jusqu’à sa base, sont assez courtes (60 cm) et portent des fruits jaune-orangé ou rouges, globuleux, 1,5 cm de diamètre. La floraison signe la mort du stipe qui la porte. Les fruits sont noirs à maturité, ils contiennent des cristaux d’oxalate, qui peuvent être assez irritants…… à manipuler avec précaution. Les graines sont petites, de couleur noire, pointues d’un côté et arrondies de l’autre.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Coryphoideae
 Tribu des Caryoteae
@@ -576,11 +592,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Arenga engleri  a été décrit par Odoardo Beccari et publié dans  Malesia  3: 184. 1889 (un recueil d'observations botaniques sur les plantes de l'archipel indo-malais)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arenga engleri  a été décrit par Odoardo Beccari et publié dans  Malesia  3: 184. 1889 (un recueil d'observations botaniques sur les plantes de l'archipel indo-malais).
 Étymologie
-  'Arenga'  : est un nom générique dérivé de aren, nom commun dans l’ile de Java pour ce palmier  Arenga pinnata [5].
+  'Arenga'  : est un nom générique dérivé de aren, nom commun dans l’ile de Java pour ce palmier  Arenga pinnata .
   'engleri'  : l'Épithète est décerné en l'honneur du botaniste allemand Adolf Engler par Beccari en 1889.
  Synonymie
 Didymosperma engleri               (Becc.) Warb. 
